--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="19380" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:J21"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A56:Q75"/>
 </workbook>
 </file>
 
@@ -4874,8 +4874,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5263,22 +5263,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -5288,7860 +5285,7860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1569"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1">
       <c r="A192" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1">
       <c r="A200" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1">
       <c r="A201" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1">
       <c r="A202" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1">
       <c r="A203" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1">
       <c r="A204" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1">
       <c r="A205" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1">
       <c r="A206" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1">
       <c r="A208" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1">
       <c r="A209" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1">
       <c r="A210" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1">
       <c r="A211" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1">
       <c r="A212" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1">
       <c r="A213" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1">
       <c r="A214" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1">
       <c r="A215" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1">
       <c r="A216" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1">
       <c r="A217" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1">
       <c r="A218" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1">
       <c r="A219" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1">
       <c r="A220" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1">
       <c r="A221" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1">
       <c r="A222" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1">
       <c r="A223" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1">
       <c r="A224" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1">
       <c r="A227" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1">
       <c r="A228" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1">
       <c r="A229" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1">
       <c r="A230" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1">
       <c r="A231" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1">
       <c r="A232" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1">
       <c r="A234" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1">
       <c r="A236" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1">
       <c r="A237" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1">
       <c r="A238" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1">
       <c r="A239" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1">
       <c r="A241" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1">
       <c r="A242" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1">
       <c r="A243" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1">
       <c r="A244" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1">
       <c r="A245" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1">
       <c r="A246" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1">
       <c r="A248" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1">
       <c r="A249" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1">
       <c r="A250" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1">
       <c r="A251" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1">
       <c r="A252" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1">
       <c r="A253" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1">
       <c r="A254" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1">
       <c r="A255" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1">
       <c r="A256" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1">
       <c r="A257" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1">
       <c r="A258" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1">
       <c r="A259" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1">
       <c r="A260" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1">
       <c r="A261" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1">
       <c r="A262" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1">
       <c r="A263" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1">
       <c r="A264" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1">
       <c r="A265" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1">
       <c r="A266" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1">
       <c r="A267" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1">
       <c r="A268" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1">
       <c r="A269" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1">
       <c r="A270" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1">
       <c r="A271" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1">
       <c r="A272" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1">
       <c r="A273" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1">
       <c r="A275" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1">
       <c r="A276" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1">
       <c r="A277" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1">
       <c r="A278" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1">
       <c r="A279" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1">
       <c r="A281" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1">
       <c r="A282" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1">
       <c r="A283" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1">
       <c r="A284" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1">
       <c r="A285" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1">
       <c r="A286" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1">
       <c r="A287" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1">
       <c r="A288" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1">
       <c r="A289" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1">
       <c r="A290" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1">
       <c r="A291" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1">
       <c r="A292" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1">
       <c r="A293" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1">
       <c r="A294" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1">
       <c r="A295" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1">
       <c r="A296" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1">
       <c r="A297" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1">
       <c r="A298" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1">
       <c r="A299" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1">
       <c r="A300" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1">
       <c r="A301" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1">
       <c r="A302" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1">
       <c r="A303" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1">
       <c r="A304" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1">
       <c r="A305" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1">
       <c r="A306" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1">
       <c r="A307" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1">
       <c r="A308" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1">
       <c r="A309" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1">
       <c r="A310" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1">
       <c r="A311" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1">
       <c r="A312" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1">
       <c r="A313" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1">
       <c r="A314" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1">
       <c r="A315" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1">
       <c r="A316" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1">
       <c r="A317" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1">
       <c r="A318" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1">
       <c r="A319" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1">
       <c r="A320" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1">
       <c r="A321" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1">
       <c r="A322" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1">
       <c r="A323" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1">
       <c r="A324" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1">
       <c r="A325" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1">
       <c r="A326" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1">
       <c r="A327" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1">
       <c r="A328" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1">
       <c r="A329" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1">
       <c r="A330" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1">
       <c r="A331" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1">
       <c r="A332" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1">
       <c r="A333" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1">
       <c r="A334" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1">
       <c r="A335" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1">
       <c r="A336" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1">
       <c r="A337" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1">
       <c r="A338" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1">
       <c r="A339" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1">
       <c r="A340" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1">
       <c r="A341" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1">
       <c r="A342" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1">
       <c r="A343" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1">
       <c r="A344" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1">
       <c r="A345" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1">
       <c r="A346" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1">
       <c r="A347" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1">
       <c r="A348" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1">
       <c r="A349" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1">
       <c r="A350" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1">
       <c r="A351" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1">
       <c r="A352" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1">
       <c r="A353" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1">
       <c r="A354" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1">
       <c r="A355" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1">
       <c r="A356" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1">
       <c r="A357" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1">
       <c r="A358" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1">
       <c r="A359" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1">
       <c r="A360" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1">
       <c r="A361" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1">
       <c r="A362" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1">
       <c r="A363" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1">
       <c r="A364" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1">
       <c r="A365" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1">
       <c r="A366" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1">
       <c r="A367" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1">
       <c r="A368" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1">
       <c r="A369" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1">
       <c r="A370" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1">
       <c r="A371" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1">
       <c r="A372" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1">
       <c r="A373" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1">
       <c r="A374" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1">
       <c r="A375" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1">
       <c r="A376" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1">
       <c r="A377" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1">
       <c r="A378" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1">
       <c r="A379" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1">
       <c r="A380" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1">
       <c r="A381" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1">
       <c r="A382" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1">
       <c r="A383" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1">
       <c r="A384" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1">
       <c r="A385" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1">
       <c r="A386" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1">
       <c r="A387" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1">
       <c r="A388" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1">
       <c r="A389" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1">
       <c r="A390" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1">
       <c r="A391" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1">
       <c r="A392" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1">
       <c r="A393" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1">
       <c r="A394" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1">
       <c r="A395" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1">
       <c r="A396" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1">
       <c r="A397" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1">
       <c r="A398" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1">
       <c r="A399" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1">
       <c r="A400" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1">
       <c r="A401" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1">
       <c r="A402" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1">
       <c r="A403" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1">
       <c r="A404" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1">
       <c r="A405" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1">
       <c r="A406" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1">
       <c r="A407" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1">
       <c r="A408" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1">
       <c r="A409" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1">
       <c r="A410" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1">
       <c r="A411" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1">
       <c r="A412" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1">
       <c r="A413" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1">
       <c r="A414" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1">
       <c r="A415" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1">
       <c r="A416" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1">
       <c r="A417" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1">
       <c r="A418" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1">
       <c r="A419" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1">
       <c r="A420" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1">
       <c r="A421" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1">
       <c r="A422" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1">
       <c r="A423" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1">
       <c r="A424" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1">
       <c r="A425" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1">
       <c r="A426" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1">
       <c r="A427" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1">
       <c r="A428" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1">
       <c r="A429" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1">
       <c r="A430" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1">
       <c r="A431" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1">
       <c r="A432" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1">
       <c r="A433" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1">
       <c r="A434" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1">
       <c r="A435" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1">
       <c r="A436" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1">
       <c r="A437" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1">
       <c r="A438" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1">
       <c r="A439" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1">
       <c r="A440" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1">
       <c r="A441" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1">
       <c r="A442" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1">
       <c r="A443" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1">
       <c r="A444" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1">
       <c r="A445" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1">
       <c r="A446" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1">
       <c r="A447" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1">
       <c r="A448" s="5" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1">
       <c r="A449" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1">
       <c r="A450" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1">
       <c r="A451" s="5" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1">
       <c r="A452" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1">
       <c r="A453" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1">
       <c r="A454" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1">
       <c r="A455" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1">
       <c r="A456" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1">
       <c r="A457" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1">
       <c r="A458" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1">
       <c r="A459" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1">
       <c r="A460" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1">
       <c r="A461" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1">
       <c r="A462" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1">
       <c r="A463" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1">
       <c r="A464" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1">
       <c r="A465" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1">
       <c r="A466" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1">
       <c r="A467" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1">
       <c r="A468" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1">
       <c r="A469" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1">
       <c r="A470" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1">
       <c r="A471" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1">
       <c r="A472" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1">
       <c r="A473" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1">
       <c r="A474" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1">
       <c r="A475" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1">
       <c r="A476" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1">
       <c r="A477" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1">
       <c r="A478" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1">
       <c r="A479" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1">
       <c r="A480" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1">
       <c r="A481" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1">
       <c r="A482" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1">
       <c r="A483" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1">
       <c r="A484" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1">
       <c r="A485" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1">
       <c r="A486" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1">
       <c r="A487" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1">
       <c r="A488" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1">
       <c r="A489" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1">
       <c r="A490" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1">
       <c r="A491" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1">
       <c r="A492" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1">
       <c r="A493" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1">
       <c r="A494" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1">
       <c r="A495" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1">
       <c r="A496" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1">
       <c r="A497" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1">
       <c r="A498" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1">
       <c r="A499" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1">
       <c r="A500" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1">
       <c r="A501" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1">
       <c r="A502" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1">
       <c r="A503" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1">
       <c r="A504" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1">
       <c r="A505" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1">
       <c r="A506" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1">
       <c r="A507" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1">
       <c r="A508" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1">
       <c r="A509" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1">
       <c r="A510" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1">
       <c r="A511" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1">
       <c r="A512" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1">
       <c r="A513" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1">
       <c r="A514" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1">
       <c r="A515" s="5" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1">
       <c r="A516" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1">
       <c r="A517" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1">
       <c r="A518" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1">
       <c r="A519" s="5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1">
       <c r="A520" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1">
       <c r="A521" s="5" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1">
       <c r="A522" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1">
       <c r="A523" s="5" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1">
       <c r="A524" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1">
       <c r="A525" s="5" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1">
       <c r="A526" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1">
       <c r="A527" s="5" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1">
       <c r="A528" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1">
       <c r="A529" s="5" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1">
       <c r="A530" s="5" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1">
       <c r="A531" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1">
       <c r="A532" s="5" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1">
       <c r="A533" s="5" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1">
       <c r="A534" s="5" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1">
       <c r="A535" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1">
       <c r="A536" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1">
       <c r="A537" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1">
       <c r="A538" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1">
       <c r="A539" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1">
       <c r="A540" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1">
       <c r="A541" s="5" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1">
       <c r="A542" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1">
       <c r="A543" s="5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1">
       <c r="A544" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1">
       <c r="A545" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1">
       <c r="A546" s="5" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1">
       <c r="A547" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1">
       <c r="A548" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1">
       <c r="A549" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1">
       <c r="A550" s="5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1">
       <c r="A551" s="5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1">
       <c r="A552" s="5" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1">
       <c r="A553" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1">
       <c r="A554" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1">
       <c r="A555" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1">
       <c r="A556" s="5" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1">
       <c r="A557" s="5" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1">
       <c r="A558" s="5" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1">
       <c r="A559" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1">
       <c r="A560" s="5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1">
       <c r="A561" s="5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1">
       <c r="A562" s="5" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1">
       <c r="A563" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1">
       <c r="A564" s="5" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1">
       <c r="A565" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1">
       <c r="A566" s="5" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1">
       <c r="A567" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1">
       <c r="A568" s="5" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1">
       <c r="A569" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1">
       <c r="A570" s="5" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1">
       <c r="A571" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1">
       <c r="A572" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1">
       <c r="A573" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1">
       <c r="A574" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1">
       <c r="A575" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1">
       <c r="A576" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1">
       <c r="A577" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1">
       <c r="A578" s="5" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1">
       <c r="A579" s="5" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1">
       <c r="A580" s="5" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1">
       <c r="A581" s="5" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1">
       <c r="A582" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1">
       <c r="A583" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1">
       <c r="A584" s="5" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1">
       <c r="A585" s="5" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1">
       <c r="A586" s="5" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1">
       <c r="A587" s="5" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1">
       <c r="A588" s="5" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1">
       <c r="A589" s="5" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1">
       <c r="A590" s="5" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1">
       <c r="A591" s="5" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1">
       <c r="A592" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1">
       <c r="A593" s="5" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1">
       <c r="A594" s="5" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1">
       <c r="A595" s="5" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1">
       <c r="A596" s="5" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1">
       <c r="A597" s="5" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1">
       <c r="A598" s="5" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1">
       <c r="A599" s="5" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1">
       <c r="A600" s="5" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1">
       <c r="A601" s="5" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1">
       <c r="A602" s="5" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1">
       <c r="A603" s="5" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1">
       <c r="A604" s="5" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1">
       <c r="A605" s="5" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1">
       <c r="A606" s="5" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1">
       <c r="A607" s="5" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1">
       <c r="A608" s="5" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1">
       <c r="A609" s="5" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1">
       <c r="A610" s="5" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1">
       <c r="A611" s="5" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1">
       <c r="A612" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1">
       <c r="A613" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1">
       <c r="A614" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1">
       <c r="A615" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1">
       <c r="A616" s="5" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1">
       <c r="A617" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1">
       <c r="A618" s="5" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1">
       <c r="A619" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1">
       <c r="A620" s="5" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1">
       <c r="A621" s="5" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1">
       <c r="A622" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1">
       <c r="A623" s="5" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1">
       <c r="A624" s="5" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1">
       <c r="A625" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1">
       <c r="A626" s="5" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1">
       <c r="A627" s="5" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1">
       <c r="A628" s="5" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1">
       <c r="A629" s="5" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1">
       <c r="A630" s="5" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1">
       <c r="A631" s="5" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1">
       <c r="A632" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1">
       <c r="A633" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1">
       <c r="A634" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1">
       <c r="A635" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1">
       <c r="A636" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1">
       <c r="A637" s="5" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1">
       <c r="A638" s="5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1">
       <c r="A639" s="5" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1">
       <c r="A640" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1">
       <c r="A641" s="5" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1">
       <c r="A642" s="5" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1">
       <c r="A643" s="5" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1">
       <c r="A644" s="5" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1">
       <c r="A645" s="5" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1">
       <c r="A646" s="5" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1">
       <c r="A647" s="5" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1">
       <c r="A648" s="5" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1">
       <c r="A649" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1">
       <c r="A650" s="5" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1">
       <c r="A651" s="5" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1">
       <c r="A652" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1">
       <c r="A653" s="5" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1">
       <c r="A654" s="5" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1">
       <c r="A655" s="5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1">
       <c r="A656" s="5" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1">
       <c r="A657" s="5" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1">
       <c r="A658" s="5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1">
       <c r="A659" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1">
       <c r="A660" s="5" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1">
       <c r="A661" s="5" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1">
       <c r="A662" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1">
       <c r="A663" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1">
       <c r="A664" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1">
       <c r="A665" s="5" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1">
       <c r="A666" s="5" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1">
       <c r="A667" s="5" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1">
       <c r="A668" s="5" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1">
       <c r="A669" s="5" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1">
       <c r="A670" s="5" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1">
       <c r="A671" s="5" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1">
       <c r="A672" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1">
       <c r="A673" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1">
       <c r="A674" s="5" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1">
       <c r="A675" s="5" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1">
       <c r="A676" s="5" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1">
       <c r="A677" s="5" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1">
       <c r="A678" s="5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1">
       <c r="A679" s="5" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1">
       <c r="A680" s="5" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1">
       <c r="A681" s="5" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1">
       <c r="A682" s="5" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1">
       <c r="A683" s="5" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1">
       <c r="A684" s="5" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1">
       <c r="A685" s="5" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1">
       <c r="A686" s="5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1">
       <c r="A687" s="5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1">
       <c r="A688" s="5" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1">
       <c r="A689" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1">
       <c r="A690" s="5" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1">
       <c r="A691" s="5" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1">
       <c r="A692" s="5" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1">
       <c r="A693" s="5" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1">
       <c r="A694" s="5" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1">
       <c r="A695" s="5" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1">
       <c r="A696" s="5" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1">
       <c r="A697" s="5" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1">
       <c r="A698" s="5" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1">
       <c r="A699" s="5" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1">
       <c r="A700" s="5" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1">
       <c r="A701" s="5" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1">
       <c r="A702" s="5" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1">
       <c r="A703" s="5" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1">
       <c r="A704" s="5" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1">
       <c r="A705" s="5" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1">
       <c r="A706" s="5" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1">
       <c r="A707" s="5" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1">
       <c r="A708" s="5" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1">
       <c r="A709" s="5" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1">
       <c r="A710" s="5" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1">
       <c r="A711" s="5" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1">
       <c r="A712" s="5" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1">
       <c r="A713" s="5" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1">
       <c r="A714" s="5" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1">
       <c r="A715" s="5" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1">
       <c r="A716" s="5" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1">
       <c r="A717" s="5" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1">
       <c r="A718" s="5" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1">
       <c r="A719" s="5" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1">
       <c r="A720" s="5" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1">
       <c r="A721" s="5" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1">
       <c r="A722" s="5" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1">
       <c r="A723" s="5" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1">
       <c r="A724" s="5" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1">
       <c r="A725" s="5" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1">
       <c r="A726" s="5" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1">
       <c r="A727" s="5" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1">
       <c r="A728" s="5" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1">
       <c r="A729" s="5" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1">
       <c r="A730" s="5" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1">
       <c r="A731" s="5" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1">
       <c r="A732" s="5" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1">
       <c r="A733" s="5" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1">
       <c r="A734" s="5" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1">
       <c r="A735" s="5" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1">
       <c r="A736" s="5" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1">
       <c r="A737" s="5" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1">
       <c r="A738" s="5" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1">
       <c r="A739" s="5" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1">
       <c r="A740" s="5" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1">
       <c r="A741" s="5" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1">
       <c r="A742" s="5" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1">
       <c r="A743" s="5" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1">
       <c r="A744" s="5" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1">
       <c r="A745" s="5" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1">
       <c r="A746" s="5" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1">
       <c r="A747" s="5" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1">
       <c r="A748" s="5" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1">
       <c r="A749" s="5" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1">
       <c r="A750" s="5" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1">
       <c r="A751" s="5" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1">
       <c r="A752" s="5" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1">
       <c r="A753" s="5" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1">
       <c r="A754" s="5" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1">
       <c r="A755" s="5" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1">
       <c r="A756" s="5" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1">
       <c r="A757" s="5" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1">
       <c r="A758" s="5" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1">
       <c r="A759" s="5" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1">
       <c r="A760" s="5" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1">
       <c r="A761" s="5" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1">
       <c r="A762" s="5" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1">
       <c r="A763" s="5" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1">
       <c r="A764" s="5" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1">
       <c r="A765" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1">
       <c r="A766" s="5" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1">
       <c r="A767" s="5" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1">
       <c r="A768" s="5" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1">
       <c r="A769" s="5" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1">
       <c r="A770" s="5" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1">
       <c r="A771" s="5" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1">
       <c r="A772" s="5" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1">
       <c r="A773" s="5" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1">
       <c r="A774" s="5" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1">
       <c r="A775" s="5" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1">
       <c r="A776" s="5" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1">
       <c r="A777" s="5" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1">
       <c r="A778" s="5" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1">
       <c r="A779" s="5" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1">
       <c r="A780" s="5" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1">
       <c r="A781" s="5" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1">
       <c r="A782" s="5" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1">
       <c r="A783" s="5" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1">
       <c r="A784" s="5" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1">
       <c r="A785" s="5" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1">
       <c r="A786" s="5" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1">
       <c r="A787" s="5" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1">
       <c r="A788" s="5" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1">
       <c r="A789" s="5" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1">
       <c r="A790" s="5" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1">
       <c r="A791" s="5" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1">
       <c r="A792" s="5" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1">
       <c r="A793" s="5" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1">
       <c r="A794" s="5" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1">
       <c r="A795" s="5" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1">
       <c r="A796" s="5" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1">
       <c r="A797" s="5" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1">
       <c r="A798" s="5" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1">
       <c r="A799" s="5" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1">
       <c r="A800" s="5" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1">
       <c r="A801" s="5" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1">
       <c r="A802" s="5" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1">
       <c r="A803" s="5" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1">
       <c r="A804" s="5" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1">
       <c r="A805" s="5" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1">
       <c r="A806" s="5" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1">
       <c r="A807" s="5" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1">
       <c r="A808" s="5" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1">
       <c r="A809" s="5" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1">
       <c r="A810" s="5" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1">
       <c r="A811" s="5" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1">
       <c r="A812" s="5" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1">
       <c r="A813" s="5" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1">
       <c r="A814" s="5" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1">
       <c r="A815" s="5" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1">
       <c r="A816" s="5" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1">
       <c r="A817" s="5" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1">
       <c r="A818" s="5" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1">
       <c r="A819" s="5" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1">
       <c r="A820" s="5" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1">
       <c r="A821" s="5" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1">
       <c r="A822" s="5" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1">
       <c r="A823" s="5" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1">
       <c r="A824" s="5" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1">
       <c r="A825" s="5" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1">
       <c r="A826" s="5" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1">
       <c r="A827" s="5" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1">
       <c r="A828" s="5" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1">
       <c r="A829" s="5" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1">
       <c r="A830" s="5" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1">
       <c r="A831" s="5" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1">
       <c r="A832" s="5" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1">
       <c r="A833" s="5" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1">
       <c r="A834" s="5" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1">
       <c r="A835" s="5" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1">
       <c r="A836" s="5" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1">
       <c r="A837" s="5" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1">
       <c r="A838" s="5" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1">
       <c r="A839" s="5" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1">
       <c r="A840" s="5" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1">
       <c r="A841" s="5" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1">
       <c r="A842" s="5" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1">
       <c r="A843" s="5" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1">
       <c r="A844" s="5" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1">
       <c r="A845" s="5" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1">
       <c r="A846" s="5" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1">
       <c r="A847" s="5" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1">
       <c r="A848" s="5" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1">
       <c r="A849" s="5" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1">
       <c r="A850" s="5" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1">
       <c r="A851" s="5" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1">
       <c r="A852" s="5" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1">
       <c r="A853" s="5" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1">
       <c r="A854" s="5" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1">
       <c r="A855" s="5" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1">
       <c r="A856" s="5" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1">
       <c r="A857" s="5" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1">
       <c r="A858" s="5" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1">
       <c r="A859" s="5" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1">
       <c r="A860" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1">
       <c r="A861" s="5" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1">
       <c r="A862" s="5" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1">
       <c r="A863" s="5" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1">
       <c r="A864" s="5" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1">
       <c r="A865" s="5" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1">
       <c r="A866" s="5" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1">
       <c r="A867" s="5" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1">
       <c r="A868" s="5" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1">
       <c r="A869" s="5" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1">
       <c r="A870" s="5" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1">
       <c r="A871" s="5" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1">
       <c r="A872" s="5" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1">
       <c r="A873" s="5" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1">
       <c r="A874" s="5" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1">
       <c r="A875" s="5" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1">
       <c r="A876" s="5" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1">
       <c r="A877" s="5" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1">
       <c r="A878" s="5" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1">
       <c r="A879" s="5" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1">
       <c r="A880" s="5" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1">
       <c r="A881" s="5" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1">
       <c r="A882" s="5" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1">
       <c r="A883" s="5" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1">
       <c r="A884" s="5" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1">
       <c r="A885" s="5" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1">
       <c r="A886" s="5" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1">
       <c r="A887" s="5" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1">
       <c r="A888" s="5" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1">
       <c r="A889" s="5" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1">
       <c r="A890" s="5" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1">
       <c r="A891" s="5" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1">
       <c r="A892" s="5" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1">
       <c r="A893" s="5" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1">
       <c r="A894" s="5" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1">
       <c r="A895" s="5" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1">
       <c r="A896" s="5" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1">
       <c r="A897" s="5" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1">
       <c r="A898" s="5" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1">
       <c r="A899" s="5" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1">
       <c r="A900" s="5" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1">
       <c r="A901" s="5" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1">
       <c r="A902" s="5" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1">
       <c r="A903" s="5" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1">
       <c r="A904" s="5" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1">
       <c r="A905" s="5" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1">
       <c r="A906" s="5" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1">
       <c r="A907" s="5" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1">
       <c r="A908" s="5" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1">
       <c r="A909" s="5" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1">
       <c r="A910" s="5" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1">
       <c r="A911" s="5" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1">
       <c r="A912" s="5" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1">
       <c r="A913" s="5" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1">
       <c r="A914" s="5" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1">
       <c r="A915" s="5" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1">
       <c r="A916" s="5" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1">
       <c r="A917" s="5" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1">
       <c r="A918" s="5" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1">
       <c r="A919" s="5" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1">
       <c r="A920" s="5" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1">
       <c r="A921" s="5" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1">
       <c r="A922" s="5" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1">
       <c r="A923" s="5" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1">
       <c r="A924" s="5" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1">
       <c r="A925" s="5" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1">
       <c r="A926" s="5" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1">
       <c r="A927" s="5" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1">
       <c r="A928" s="5" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1">
       <c r="A929" s="5" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1">
       <c r="A930" s="5" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1">
       <c r="A931" s="5" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1">
       <c r="A932" s="5" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1">
       <c r="A933" s="5" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1">
       <c r="A934" s="5" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1">
       <c r="A935" s="5" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1">
       <c r="A936" s="5" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1">
       <c r="A937" s="5" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1">
       <c r="A938" s="5" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1">
       <c r="A939" s="5" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1">
       <c r="A940" s="5" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1">
       <c r="A941" s="5" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1">
       <c r="A942" s="5" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1">
       <c r="A943" s="5" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1">
       <c r="A944" s="5" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1">
       <c r="A945" s="5" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1">
       <c r="A946" s="5" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1">
       <c r="A947" s="5" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1">
       <c r="A948" s="5" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1">
       <c r="A949" s="5" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1">
       <c r="A950" s="5" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1">
       <c r="A951" s="5" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:1">
       <c r="A952" s="5" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1">
       <c r="A953" s="5" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1">
       <c r="A954" s="5" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1">
       <c r="A955" s="5" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1">
       <c r="A956" s="5" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1">
       <c r="A957" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1">
       <c r="A958" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1">
       <c r="A959" s="5" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1">
       <c r="A960" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1">
       <c r="A961" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1">
       <c r="A962" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1">
       <c r="A963" s="5" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1">
       <c r="A964" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1">
       <c r="A965" s="5" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1">
       <c r="A966" s="5" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1">
       <c r="A967" s="5" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1">
       <c r="A968" s="5" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1">
       <c r="A969" s="5" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1">
       <c r="A970" s="5" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1">
       <c r="A971" s="5" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1">
       <c r="A972" s="5" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1">
       <c r="A973" s="5" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1">
       <c r="A974" s="5" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1">
       <c r="A975" s="5" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1">
       <c r="A976" s="5" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1">
       <c r="A977" s="5" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1">
       <c r="A978" s="5" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1">
       <c r="A979" s="5" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1">
       <c r="A980" s="5" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1">
       <c r="A981" s="5" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1">
       <c r="A982" s="5" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1">
       <c r="A983" s="5" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1">
       <c r="A984" s="5" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1">
       <c r="A985" s="5" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1">
       <c r="A986" s="5" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1">
       <c r="A987" s="5" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1">
       <c r="A988" s="5" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1">
       <c r="A989" s="5" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1">
       <c r="A990" s="5" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1">
       <c r="A991" s="5" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1">
       <c r="A992" s="5" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1">
       <c r="A993" s="5" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1">
       <c r="A994" s="5" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1">
       <c r="A995" s="5" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1">
       <c r="A996" s="5" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1">
       <c r="A997" s="5" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1">
       <c r="A998" s="5" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1">
       <c r="A999" s="5" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1">
       <c r="A1000" s="5" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:1">
       <c r="A1001" s="5" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:1">
       <c r="A1002" s="5" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:1">
       <c r="A1003" s="5" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:1">
       <c r="A1004" s="5" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:1">
       <c r="A1005" s="5" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:1">
       <c r="A1006" s="5" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:1">
       <c r="A1007" s="5" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:1">
       <c r="A1008" s="5" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:1">
       <c r="A1009" s="5" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:1">
       <c r="A1010" s="5" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:1">
       <c r="A1011" s="5" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:1">
       <c r="A1012" s="5" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:1">
       <c r="A1013" s="5" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:1">
       <c r="A1014" s="5" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:1">
       <c r="A1015" s="5" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:1">
       <c r="A1016" s="5" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:1">
       <c r="A1017" s="5" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:1">
       <c r="A1018" s="5" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:1">
       <c r="A1019" s="5" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:1">
       <c r="A1020" s="5" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:1">
       <c r="A1021" s="5" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:1">
       <c r="A1022" s="5" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:1">
       <c r="A1023" s="5" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:1">
       <c r="A1024" s="5" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:1">
       <c r="A1025" s="5" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:1">
       <c r="A1026" s="5" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:1">
       <c r="A1027" s="5" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:1">
       <c r="A1028" s="5" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:1">
       <c r="A1029" s="5" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:1">
       <c r="A1030" s="5" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:1">
       <c r="A1031" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:1">
       <c r="A1032" s="5" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:1">
       <c r="A1033" s="5" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:1">
       <c r="A1034" s="5" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:1">
       <c r="A1035" s="5" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:1">
       <c r="A1036" s="5" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:1">
       <c r="A1037" s="5" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:1">
       <c r="A1038" s="5" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:1">
       <c r="A1039" s="5" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:1">
       <c r="A1040" s="5" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:1">
       <c r="A1041" s="5" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:1">
       <c r="A1042" s="5" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:1">
       <c r="A1043" s="5" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:1">
       <c r="A1044" s="5" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:1">
       <c r="A1045" s="5" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:1">
       <c r="A1046" s="5" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:1">
       <c r="A1047" s="5" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:1">
       <c r="A1048" s="5" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:1">
       <c r="A1049" s="5" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:1">
       <c r="A1050" s="5" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:1">
       <c r="A1051" s="5" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:1">
       <c r="A1052" s="5" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:1">
       <c r="A1053" s="5" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:1">
       <c r="A1054" s="5" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:1">
       <c r="A1055" s="5" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:1">
       <c r="A1056" s="5" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:1">
       <c r="A1057" s="5" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:1">
       <c r="A1058" s="5" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:1">
       <c r="A1059" s="5" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:1">
       <c r="A1060" s="5" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:1">
       <c r="A1061" s="5" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:1">
       <c r="A1062" s="5" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:1">
       <c r="A1063" s="5" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:1">
       <c r="A1064" s="5" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:1">
       <c r="A1065" s="5" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:1">
       <c r="A1066" s="5" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:1">
       <c r="A1067" s="5" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:1">
       <c r="A1068" s="5" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:1">
       <c r="A1069" s="5" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:1">
       <c r="A1070" s="5" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:1">
       <c r="A1071" s="5" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:1">
       <c r="A1072" s="5" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:1">
       <c r="A1073" s="5" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:1">
       <c r="A1074" s="5" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:1">
       <c r="A1075" s="5" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:1">
       <c r="A1076" s="5" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:1">
       <c r="A1077" s="5" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:1">
       <c r="A1078" s="5" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:1">
       <c r="A1079" s="5" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:1">
       <c r="A1080" s="5" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:1">
       <c r="A1081" s="5" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:1">
       <c r="A1082" s="5" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:1">
       <c r="A1083" s="5" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:1">
       <c r="A1084" s="5" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:1">
       <c r="A1085" s="5" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:1">
       <c r="A1086" s="5" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:1">
       <c r="A1087" s="5" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:1">
       <c r="A1088" s="5" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:1">
       <c r="A1089" s="5" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:1">
       <c r="A1090" s="5" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:1">
       <c r="A1091" s="5" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:1">
       <c r="A1092" s="5" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:1">
       <c r="A1093" s="5" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:1">
       <c r="A1094" s="5" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:1">
       <c r="A1095" s="5" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:1">
       <c r="A1096" s="5" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:1">
       <c r="A1097" s="5" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:1">
       <c r="A1098" s="5" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:1">
       <c r="A1099" s="5" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:1">
       <c r="A1100" s="5" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:1">
       <c r="A1101" s="5" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:1">
       <c r="A1102" s="5" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:1">
       <c r="A1103" s="5" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:1">
       <c r="A1104" s="5" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:1">
       <c r="A1105" s="5" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:1">
       <c r="A1106" s="5" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:1">
       <c r="A1107" s="5" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:1">
       <c r="A1108" s="5" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:1">
       <c r="A1109" s="5" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:1">
       <c r="A1110" s="5" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:1">
       <c r="A1111" s="5" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:1">
       <c r="A1112" s="5" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:1">
       <c r="A1113" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:1">
       <c r="A1114" s="5" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:1">
       <c r="A1115" s="5" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:1">
       <c r="A1116" s="5" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:1">
       <c r="A1117" s="5" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:1">
       <c r="A1118" s="5" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:1">
       <c r="A1119" s="5" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:1">
       <c r="A1120" s="5" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:1">
       <c r="A1121" s="5" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:1">
       <c r="A1122" s="5" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:1">
       <c r="A1123" s="5" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:1">
       <c r="A1124" s="5" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:1">
       <c r="A1125" s="5" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:1">
       <c r="A1126" s="5" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:1">
       <c r="A1127" s="5" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:1">
       <c r="A1128" s="5" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:1">
       <c r="A1129" s="5" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:1">
       <c r="A1130" s="5" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:1">
       <c r="A1131" s="5" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:1">
       <c r="A1132" s="5" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:1">
       <c r="A1133" s="5" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:1">
       <c r="A1134" s="5" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:1">
       <c r="A1135" s="5" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:1">
       <c r="A1136" s="5" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:1">
       <c r="A1137" s="5" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:1">
       <c r="A1138" s="5" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:1">
       <c r="A1139" s="5" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:1">
       <c r="A1140" s="5" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:1">
       <c r="A1141" s="5" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:1">
       <c r="A1142" s="5" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:1">
       <c r="A1143" s="5" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:1">
       <c r="A1144" s="5" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:1">
       <c r="A1145" s="5" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:1">
       <c r="A1146" s="5" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:1">
       <c r="A1147" s="5" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:1">
       <c r="A1148" s="5" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:1">
       <c r="A1149" s="5" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:1">
       <c r="A1150" s="5" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:1">
       <c r="A1151" s="5" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:1">
       <c r="A1152" s="5" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:1">
       <c r="A1153" s="5" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:1">
       <c r="A1154" s="5" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:1">
       <c r="A1155" s="5" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:1">
       <c r="A1156" s="5" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:1">
       <c r="A1157" s="5" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:1">
       <c r="A1158" s="5" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:1">
       <c r="A1159" s="5" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:1">
       <c r="A1160" s="5" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:1">
       <c r="A1161" s="5" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:1">
       <c r="A1162" s="5" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:1">
       <c r="A1163" s="5" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:1">
       <c r="A1164" s="5" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:1">
       <c r="A1165" s="5" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:1">
       <c r="A1166" s="5" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:1">
       <c r="A1167" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:1">
       <c r="A1168" s="5" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:1">
       <c r="A1169" s="5" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:1">
       <c r="A1170" s="5" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:1">
       <c r="A1171" s="5" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:1">
       <c r="A1172" s="5" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:1">
       <c r="A1173" s="5" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:1">
       <c r="A1174" s="5" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:1">
       <c r="A1175" s="5" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:1">
       <c r="A1176" s="5" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:1">
       <c r="A1177" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:1">
       <c r="A1178" s="5" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:1">
       <c r="A1179" s="5" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:1">
       <c r="A1180" s="5" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:1">
       <c r="A1181" s="5" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:1">
       <c r="A1182" s="5" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:1">
       <c r="A1183" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:1">
       <c r="A1184" s="5" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:1">
       <c r="A1185" s="5" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:1">
       <c r="A1186" s="5" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:1">
       <c r="A1187" s="5" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:1">
       <c r="A1188" s="5" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:1">
       <c r="A1189" s="5" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:1">
       <c r="A1190" s="5" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:1">
       <c r="A1191" s="5" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:1">
       <c r="A1192" s="5" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:1">
       <c r="A1193" s="5" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:1">
       <c r="A1194" s="5" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:1">
       <c r="A1195" s="5" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:1">
       <c r="A1196" s="5" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:1">
       <c r="A1197" s="5" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:1">
       <c r="A1198" s="5" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:1">
       <c r="A1199" s="5" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:1">
       <c r="A1200" s="5" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:1">
       <c r="A1201" s="5" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:1">
       <c r="A1202" s="5" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:1">
       <c r="A1203" s="5" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:1">
       <c r="A1204" s="5" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:1">
       <c r="A1205" s="5" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:1">
       <c r="A1206" s="5" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:1">
       <c r="A1207" s="5" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:1">
       <c r="A1208" s="5" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:1">
       <c r="A1209" s="5" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:1">
       <c r="A1210" s="5" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:1">
       <c r="A1211" s="5" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:1">
       <c r="A1212" s="5" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:1">
       <c r="A1213" s="5" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:1">
       <c r="A1214" s="5" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:1">
       <c r="A1215" s="5" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:1">
       <c r="A1216" s="5" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:1">
       <c r="A1217" s="5" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:1">
       <c r="A1218" s="5" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:1">
       <c r="A1219" s="5" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:1">
       <c r="A1220" s="5" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:1">
       <c r="A1221" s="5" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:1">
       <c r="A1222" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:1">
       <c r="A1223" s="5" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:1">
       <c r="A1224" s="5" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:1">
       <c r="A1225" s="5" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:1">
       <c r="A1226" s="5" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:1">
       <c r="A1227" s="5" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:1">
       <c r="A1228" s="5" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:1">
       <c r="A1229" s="5" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:1">
       <c r="A1230" s="5" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:1">
       <c r="A1231" s="5" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:1">
       <c r="A1232" s="5" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:1">
       <c r="A1233" s="5" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:1">
       <c r="A1234" s="5" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:1">
       <c r="A1235" s="5" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:1">
       <c r="A1236" s="5" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:1">
       <c r="A1237" s="5" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:1">
       <c r="A1238" s="5" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:1">
       <c r="A1239" s="5" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:1">
       <c r="A1240" s="5" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:1">
       <c r="A1241" s="5" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:1">
       <c r="A1242" s="5" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:1">
       <c r="A1243" s="5" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:1">
       <c r="A1244" s="5" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:1">
       <c r="A1245" s="5" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:1">
       <c r="A1246" s="5" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:1">
       <c r="A1247" s="5" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:1">
       <c r="A1248" s="5" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:1">
       <c r="A1249" s="5" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:1">
       <c r="A1250" s="5" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:1">
       <c r="A1251" s="5" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:1">
       <c r="A1252" s="5" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:1">
       <c r="A1253" s="5" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:1">
       <c r="A1254" s="5" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:1">
       <c r="A1255" s="5" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:1">
       <c r="A1256" s="5" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:1">
       <c r="A1257" s="5" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:1">
       <c r="A1258" s="5" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:1">
       <c r="A1259" s="5" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:1">
       <c r="A1260" s="5" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:1">
       <c r="A1261" s="5" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:1">
       <c r="A1262" s="5" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:1">
       <c r="A1263" s="5" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:1">
       <c r="A1264" s="5" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:1">
       <c r="A1265" s="5" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:1">
       <c r="A1266" s="5" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:1">
       <c r="A1267" s="5" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:1">
       <c r="A1268" s="5" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:1">
       <c r="A1269" s="5" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:1">
       <c r="A1270" s="5" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:1">
       <c r="A1271" s="5" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:1">
       <c r="A1272" s="5" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:1">
       <c r="A1273" s="5" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:1">
       <c r="A1274" s="5" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:1">
       <c r="A1275" s="5" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:1">
       <c r="A1276" s="5" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:1">
       <c r="A1277" s="5" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:1">
       <c r="A1278" s="5" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:1">
       <c r="A1279" s="5" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:1">
       <c r="A1280" s="5" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:1">
       <c r="A1281" s="5" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:1">
       <c r="A1282" s="5" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:1">
       <c r="A1283" s="5" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:1">
       <c r="A1284" s="5" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:1">
       <c r="A1285" s="5" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:1">
       <c r="A1286" s="5" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:1">
       <c r="A1287" s="5" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:1">
       <c r="A1288" s="5" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:1">
       <c r="A1289" s="5" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:1">
       <c r="A1290" s="5" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:1">
       <c r="A1291" s="5" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:1">
       <c r="A1292" s="5" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:1">
       <c r="A1293" s="5" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:1">
       <c r="A1294" s="5" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:1">
       <c r="A1295" s="5" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:1">
       <c r="A1296" s="5" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:1">
       <c r="A1297" s="5" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:1">
       <c r="A1298" s="5" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:1">
       <c r="A1299" s="5" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:1">
       <c r="A1300" s="5" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:1">
       <c r="A1301" s="5" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:1">
       <c r="A1302" s="5" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:1">
       <c r="A1303" s="5" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:1">
       <c r="A1304" s="5" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:1">
       <c r="A1305" s="5" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:1">
       <c r="A1306" s="5" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:1">
       <c r="A1307" s="5" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:1">
       <c r="A1308" s="5" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:1">
       <c r="A1309" s="5" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:1">
       <c r="A1310" s="5" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:1">
       <c r="A1311" s="5" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:1">
       <c r="A1312" s="5" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:1">
       <c r="A1313" s="5" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:1">
       <c r="A1314" s="5" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:1">
       <c r="A1315" s="5" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:1">
       <c r="A1316" s="5" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:1">
       <c r="A1317" s="5" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:1">
       <c r="A1318" s="5" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:1">
       <c r="A1319" s="5" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:1">
       <c r="A1320" s="5" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:1">
       <c r="A1321" s="5" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:1">
       <c r="A1322" s="5" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:1">
       <c r="A1323" s="5" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:1">
       <c r="A1324" s="5" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:1">
       <c r="A1325" s="5" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:1">
       <c r="A1326" s="5" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:1">
       <c r="A1327" s="5" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:1">
       <c r="A1328" s="5" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:1">
       <c r="A1329" s="5" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:1">
       <c r="A1330" s="5" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:1">
       <c r="A1331" s="5" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:1">
       <c r="A1332" s="5" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:1">
       <c r="A1333" s="5" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:1">
       <c r="A1334" s="5" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:1">
       <c r="A1335" s="5" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:1">
       <c r="A1336" s="5" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:1">
       <c r="A1337" s="5" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:1">
       <c r="A1338" s="5" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:1">
       <c r="A1339" s="5" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:1">
       <c r="A1340" s="5" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:1">
       <c r="A1341" s="5" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:1">
       <c r="A1342" s="5" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:1">
       <c r="A1343" s="5" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:1">
       <c r="A1344" s="5" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1345" spans="1:1">
       <c r="A1345" s="5" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:1">
       <c r="A1346" s="5" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:1">
       <c r="A1347" s="5" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:1">
       <c r="A1348" s="5" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:1">
       <c r="A1349" s="5" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1350" spans="1:1">
       <c r="A1350" s="5" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:1">
       <c r="A1351" s="5" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:1">
       <c r="A1352" s="5" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:1">
       <c r="A1353" s="5" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:1">
       <c r="A1354" s="5" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:1">
       <c r="A1355" s="5" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:1">
       <c r="A1356" s="5" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:1">
       <c r="A1357" s="5" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:1">
       <c r="A1358" s="5" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:1">
       <c r="A1359" s="5" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:1">
       <c r="A1360" s="5" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:1">
       <c r="A1361" s="5" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:1">
       <c r="A1362" s="5" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:1">
       <c r="A1363" s="5" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:1">
       <c r="A1364" s="5" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:1">
       <c r="A1365" s="5" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:1">
       <c r="A1366" s="5" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:1">
       <c r="A1367" s="5" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:1">
       <c r="A1368" s="5" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:1">
       <c r="A1369" s="5" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:1">
       <c r="A1370" s="5" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:1">
       <c r="A1371" s="5" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:1">
       <c r="A1372" s="5" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:1">
       <c r="A1373" s="5" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:1">
       <c r="A1374" s="5" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:1">
       <c r="A1375" s="5" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1376" spans="1:1">
       <c r="A1376" s="5" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:1">
       <c r="A1377" s="5" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:1">
       <c r="A1378" s="5" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:1">
       <c r="A1379" s="5" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:1">
       <c r="A1380" s="5" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:1">
       <c r="A1381" s="5" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:1">
       <c r="A1382" s="5" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:1">
       <c r="A1383" s="5" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:1">
       <c r="A1384" s="5" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:1">
       <c r="A1385" s="5" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:1">
       <c r="A1386" s="5" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:1">
       <c r="A1387" s="5" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:1">
       <c r="A1388" s="5" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:1">
       <c r="A1389" s="5" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:1">
       <c r="A1390" s="5" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:1">
       <c r="A1391" s="5" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:1">
       <c r="A1392" s="5" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:1">
       <c r="A1393" s="5" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:1">
       <c r="A1394" s="5" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:1">
       <c r="A1395" s="5" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:1">
       <c r="A1396" s="5" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:1">
       <c r="A1397" s="5" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:1">
       <c r="A1398" s="5" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:1">
       <c r="A1399" s="5" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:1">
       <c r="A1400" s="5" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:1">
       <c r="A1401" s="5" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:1">
       <c r="A1402" s="5" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:1">
       <c r="A1403" s="5" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:1">
       <c r="A1404" s="5" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:1">
       <c r="A1405" s="5" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:1">
       <c r="A1406" s="5" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:1">
       <c r="A1407" s="5" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:1">
       <c r="A1408" s="5" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:1">
       <c r="A1409" s="5" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:1">
       <c r="A1410" s="5" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:1">
       <c r="A1411" s="5" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:1">
       <c r="A1412" s="5" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:1">
       <c r="A1413" s="5" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:1">
       <c r="A1414" s="5" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:1">
       <c r="A1415" s="5" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:1">
       <c r="A1416" s="5" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:1">
       <c r="A1417" s="5" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:1">
       <c r="A1418" s="5" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:1">
       <c r="A1419" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:1">
       <c r="A1420" s="5" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:1">
       <c r="A1421" s="5" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:1">
       <c r="A1422" s="5" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:1">
       <c r="A1423" s="5" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:1">
       <c r="A1424" s="5" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:1">
       <c r="A1425" s="5" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:1">
       <c r="A1426" s="5" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:1">
       <c r="A1427" s="5" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:1">
       <c r="A1428" s="5" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:1">
       <c r="A1429" s="5" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:1">
       <c r="A1430" s="5" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:1">
       <c r="A1431" s="5" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:1">
       <c r="A1432" s="5" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:1">
       <c r="A1433" s="5" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:1">
       <c r="A1434" s="5" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:1">
       <c r="A1435" s="5" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:1">
       <c r="A1436" s="5" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:1">
       <c r="A1437" s="5" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:1">
       <c r="A1438" s="5" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1439" spans="1:1">
       <c r="A1439" s="5" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:1">
       <c r="A1440" s="5" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1441" spans="1:1">
       <c r="A1441" s="5" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:1">
       <c r="A1442" s="5" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:1">
       <c r="A1443" s="5" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1444" spans="1:1">
       <c r="A1444" s="5" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:1">
       <c r="A1445" s="5" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:1">
       <c r="A1446" s="5" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:1">
       <c r="A1447" s="5" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:1">
       <c r="A1448" s="5" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:1">
       <c r="A1449" s="5" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:1">
       <c r="A1450" s="5" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:1">
       <c r="A1451" s="5" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:1">
       <c r="A1452" s="5" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:1">
       <c r="A1453" s="5" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:1">
       <c r="A1454" s="5" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:1">
       <c r="A1455" s="5" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:1">
       <c r="A1456" s="5" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:1">
       <c r="A1457" s="5" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:1">
       <c r="A1458" s="5" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:1">
       <c r="A1459" s="5" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:1">
       <c r="A1460" s="5" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:1">
       <c r="A1461" s="5" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:1">
       <c r="A1462" s="5" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:1">
       <c r="A1463" s="5" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:1">
       <c r="A1464" s="5" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:1">
       <c r="A1465" s="5" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1466" spans="1:1">
       <c r="A1466" s="5" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1467" spans="1:1">
       <c r="A1467" s="5" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1468" spans="1:1">
       <c r="A1468" s="5" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1469" spans="1:1">
       <c r="A1469" s="5" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:1">
       <c r="A1470" s="5" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:1">
       <c r="A1471" s="5" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:1">
       <c r="A1472" s="5" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:1">
       <c r="A1473" s="5" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:1">
       <c r="A1474" s="5" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:1">
       <c r="A1475" s="5" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:1">
       <c r="A1476" s="5" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:1">
       <c r="A1477" s="5" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:1">
       <c r="A1478" s="5" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:1">
       <c r="A1479" s="5" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:1">
       <c r="A1480" s="5" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1481" spans="1:1">
       <c r="A1481" s="5" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:1">
       <c r="A1482" s="5" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1483" spans="1:1">
       <c r="A1483" s="5" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:1">
       <c r="A1484" s="5" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:1">
       <c r="A1485" s="5" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:1">
       <c r="A1486" s="5" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:1">
       <c r="A1487" s="5" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:1">
       <c r="A1488" s="5" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:1">
       <c r="A1489" s="5" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:1">
       <c r="A1490" s="5" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:1">
       <c r="A1491" s="5" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:1">
       <c r="A1492" s="5" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:1">
       <c r="A1493" s="5" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:1">
       <c r="A1494" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:1">
       <c r="A1495" s="5" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:1">
       <c r="A1496" s="5" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:1">
       <c r="A1497" s="5" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:1">
       <c r="A1498" s="5" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:1">
       <c r="A1499" s="5" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:1">
       <c r="A1500" s="5" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:1">
       <c r="A1501" s="5" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:1">
       <c r="A1502" s="5" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:1">
       <c r="A1503" s="5" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1504" spans="1:1">
       <c r="A1504" s="5" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1505" spans="1:1">
       <c r="A1505" s="5" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:1">
       <c r="A1506" s="5" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:1">
       <c r="A1507" s="5" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:1">
       <c r="A1508" s="5" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1509" spans="1:1">
       <c r="A1509" s="5" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:1">
       <c r="A1510" s="5" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1511" spans="1:1">
       <c r="A1511" s="5" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:1">
       <c r="A1512" s="5" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:1">
       <c r="A1513" s="5">
         <v>1012974682959</v>
       </c>
     </row>
-    <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:1">
       <c r="A1514" s="5" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:1">
       <c r="A1515" s="5" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:1">
       <c r="A1516" s="5" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:1">
       <c r="A1517" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:1">
       <c r="A1518" s="5" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1519" spans="1:1">
       <c r="A1519" s="5" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:1">
       <c r="A1520" s="5" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1521" spans="1:1">
       <c r="A1521" s="5" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:1">
       <c r="A1522" s="5" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:1">
       <c r="A1523" s="5" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:1">
       <c r="A1524" s="5" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:1">
       <c r="A1525" s="5" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1526" spans="1:1">
       <c r="A1526" s="5" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:1">
       <c r="A1527" s="5" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:1">
       <c r="A1528" s="5" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:1">
       <c r="A1529" s="5" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:1">
       <c r="A1530" s="5" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1531" spans="1:1">
       <c r="A1531" s="5" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1532" spans="1:1">
       <c r="A1532" s="5" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1533" spans="1:1">
       <c r="A1533" s="5" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1534" spans="1:1">
       <c r="A1534" s="5" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:1">
       <c r="A1535" s="5" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1536" spans="1:1">
       <c r="A1536" s="5" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1537" spans="1:1">
       <c r="A1537" s="5" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:1">
       <c r="A1538" s="5" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:1">
       <c r="A1539" s="5" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:1">
       <c r="A1540" s="5" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1541" spans="1:1">
       <c r="A1541" s="5" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:1">
       <c r="A1542" s="5" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:1">
       <c r="A1543" s="5" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1544" spans="1:1">
       <c r="A1544" s="5" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1545" spans="1:1">
       <c r="A1545" s="5" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:1">
       <c r="A1546" s="5" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:1">
       <c r="A1547" s="5" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:1">
       <c r="A1548" s="5" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1549" spans="1:1">
       <c r="A1549" s="5" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1550" spans="1:1">
       <c r="A1550" s="5" t="s">
         <v>1590</v>
       </c>
     </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1551" spans="1:1">
       <c r="A1551" s="5" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1552" spans="1:1">
       <c r="A1552" s="5" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1553" spans="1:1">
       <c r="A1553" s="5" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1554" spans="1:1">
       <c r="A1554" s="5" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1555" spans="1:1">
       <c r="A1555" s="5" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="1556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:1">
       <c r="A1556" s="5" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="1557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:1">
       <c r="A1557" s="5" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="1558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:1">
       <c r="A1558" s="5" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1559" spans="1:1">
       <c r="A1559" s="5" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="1560" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1560" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1560" s="5" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="1561" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1561" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1561" s="6" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="1562" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1562" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1562" s="6" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="1563" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1563" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1563" s="6" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="1564" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1564" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1564" s="6" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="1565" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1565" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1565" s="6" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="1566" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1566" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1566" s="6" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="1567" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1567" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1567" s="6" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="1568" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1568" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1568" s="6" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="1569" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1569" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1569" s="6" t="s">
         <v>1600</v>
       </c>
@@ -13153,14 +13150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="26.42578125" style="9" customWidth="1"/>
@@ -13171,7 +13168,7 @@
     <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13209,17 +13206,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -13251,7 +13248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -13283,7 +13280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -13315,7 +13312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -13329,7 +13326,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -13340,7 +13337,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -13354,17 +13351,17 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45">
       <c r="A12" s="8" t="s">
         <v>1611</v>
       </c>
@@ -13375,7 +13372,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
         <v>1612</v>
       </c>
@@ -13389,12 +13386,12 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
         <v>1614</v>
       </c>
@@ -13406,12 +13403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10485" windowHeight="3975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A56:Q75"/>
+  <oleSize ref="A56:K66"/>
 </workbook>
 </file>
 
@@ -5288,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13154,7 +13154,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10485" windowHeight="3975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14850" windowHeight="4035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A56:K66"/>
+  <oleSize ref="A56:M67"/>
 </workbook>
 </file>
 
@@ -4838,12 +4838,6 @@
     <t>addValidHHmeterGeneric()</t>
   </si>
   <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
     <t>Expected Consumption</t>
   </si>
   <si>
@@ -4865,10 +4859,16 @@
     <t>TC_14</t>
   </si>
   <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2800</t>
+    <t>900</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>850</t>
   </si>
 </sst>
 </file>
@@ -5288,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A1564" workbookViewId="0">
+      <selection activeCell="C1574" sqref="C1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13331,10 +13331,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -13345,10 +13345,10 @@
         <v>1605</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1607</v>
+        <v>1613</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -13363,21 +13363,21 @@
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" s="8" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>1615</v>
@@ -13388,12 +13388,12 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14850" windowHeight="4035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="4035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A56:M67"/>
+  <oleSize ref="A1:T12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1626">
   <si>
     <t>test ID</t>
   </si>
@@ -4869,6 +4870,33 @@
   </si>
   <si>
     <t>850</t>
+  </si>
+  <si>
+    <t>volumeData</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>RequiredVolume</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>36,600.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppliers are: </t>
   </si>
 </sst>
 </file>
@@ -4937,7 +4965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4963,6 +4991,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5288,8 +5317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1564" workbookViewId="0">
-      <selection activeCell="C1574" sqref="C1574"/>
+    <sheetView topLeftCell="A1552" workbookViewId="0">
+      <selection activeCell="A1560" sqref="A1560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13404,12 +13433,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="4050" windowWidth="11955" windowHeight="4035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11670" windowHeight="6435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J21"/>
+  <oleSize ref="A1:I20"/>
 </workbook>
 </file>
 
@@ -5400,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1569"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A932" workbookViewId="0">
+      <selection activeCell="A932" sqref="A932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13265,7 +13265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11670" windowHeight="6435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14310" windowHeight="6435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I20"/>
+  <oleSize ref="A1:T18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1669">
   <si>
     <t>test ID</t>
   </si>
@@ -4949,35 +4951,89 @@
     <t>British Gas Business</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>ReenasTest</t>
+  </si>
+  <si>
+    <t>SelectingSingleContractDuration()</t>
+  </si>
+  <si>
+    <t>Request Quote</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Credit Status</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>SecurityDeposit</t>
+  </si>
+  <si>
+    <t>ParentalCompanyGuarantee</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
     <t>Pass Through - HH</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Auto Testing Submit Price</t>
+  </si>
+  <si>
+    <t>Upload Price</t>
+  </si>
+  <si>
+    <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\PriceUpload.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4991,8 +5047,23 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5014,6 +5085,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5045,7 +5122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5075,6 +5152,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5376,18 +5468,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:1">
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30">
+      <c r="B2" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -5400,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A932" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A932" sqref="A932"/>
     </sheetView>
   </sheetViews>
@@ -13265,9 +13405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13387,7 +13525,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>28</v>
@@ -13419,7 +13557,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>25</v>
@@ -13451,7 +13589,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>28</v>
@@ -13593,7 +13731,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="45">
+    <row r="21" spans="2:13" ht="30">
       <c r="B21" s="9" t="s">
         <v>1639</v>
       </c>
@@ -13610,22 +13748,22 @@
         <v>1642</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>1643</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="I21" s="9" t="s">
         <v>1644</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>1645</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>1646</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>1647</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>1648</v>
       </c>
     </row>
   </sheetData>
@@ -13644,4 +13782,119 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="13.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45">
+      <c r="A1" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30">
+      <c r="C2" s="15" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="D3" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="D4" s="3" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="D5" s="3" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="3" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14310" windowHeight="6435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14310" windowHeight="6435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:T18"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1712">
   <si>
     <t>test ID</t>
   </si>
@@ -5027,13 +5027,142 @@
   </si>
   <si>
     <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\PriceUpload.xlsx</t>
+  </si>
+  <si>
+    <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\Testing.docx</t>
+  </si>
+  <si>
+    <t>addValidNHHcontractHistory()</t>
+  </si>
+  <si>
+    <t>1-Mar-2010</t>
+  </si>
+  <si>
+    <t>30-Feb-2010</t>
+  </si>
+  <si>
+    <t>Suppliers Are :</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Auto_Company_5…</t>
+  </si>
+  <si>
+    <t>MeterForeCasteForGas</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>marc</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>july</t>
+  </si>
+  <si>
+    <t>augh</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>ValidData</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>InvalidData</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>InvalidDataAlphabets</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>Alphabets</t>
+  </si>
+  <si>
+    <t>SpecialCharecter</t>
+  </si>
+  <si>
+    <t>Spaces</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>NegativeValues</t>
+  </si>
+  <si>
+    <t>Electricity Transmission Losses %</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>@#$%^,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>&lt;html&gt;</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>Electricity Distribution Losses %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>FlexQuoteInformatio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5062,8 +5191,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5091,6 +5240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5122,7 +5277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5167,6 +5322,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13403,9 +13564,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13763,6 +13926,38 @@
         <v>1646</v>
       </c>
       <c r="L21" s="9" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="30">
+      <c r="B23" s="9" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -13786,12 +13981,327 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="18" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="18" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="18" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1683</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1685</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="U13">
+        <v>55</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="B14" s="18" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="21" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="18" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <v>30</v>
+      </c>
+      <c r="S21">
+        <v>20</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13800,8 +14310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13870,12 +14380,15 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="30">
       <c r="D3" s="3" t="s">
         <v>1659</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1650</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="4" spans="1:12">

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14310" windowHeight="6435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14520" windowHeight="6435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:K11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1718">
   <si>
     <t>test ID</t>
   </si>
@@ -5156,6 +5156,24 @@
   </si>
   <si>
     <t>FlexQuoteInformatio</t>
+  </si>
+  <si>
+    <t>addValidGascontractHistory()</t>
+  </si>
+  <si>
+    <t>GasReena</t>
+  </si>
+  <si>
+    <t>1-Apr-2010</t>
+  </si>
+  <si>
+    <t>30-Apr-2010</t>
+  </si>
+  <si>
+    <t>Unit Charge</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
 </sst>
 </file>
@@ -5212,7 +5230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5249,6 +5267,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5277,7 +5301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5328,6 +5352,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13564,10 +13591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13854,12 +13881,12 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:14">
       <c r="B19" s="9" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="60">
+    <row r="20" spans="2:14" ht="60">
       <c r="C20" s="11" t="s">
         <v>1628</v>
       </c>
@@ -13893,8 +13920,11 @@
       <c r="M20" s="11" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" ht="30">
+      <c r="N20" s="22" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="30">
       <c r="B21" s="9" t="s">
         <v>1639</v>
       </c>
@@ -13929,7 +13959,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="30">
+    <row r="23" spans="2:14" ht="30">
       <c r="B23" s="9" t="s">
         <v>1670</v>
       </c>
@@ -13959,6 +13989,35 @@
       </c>
       <c r="L23" s="9" t="s">
         <v>1647</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="30">
+      <c r="B25" s="9" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>1717</v>
       </c>
     </row>
   </sheetData>
@@ -13983,7 +14042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14520" windowHeight="6435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:K11"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1726">
   <si>
     <t>test ID</t>
   </si>
@@ -5047,9 +5047,6 @@
     <t>CustomerName</t>
   </si>
   <si>
-    <t>Auto_Company_5…</t>
-  </si>
-  <si>
     <t>MeterForeCasteForGas</t>
   </si>
   <si>
@@ -5174,6 +5171,33 @@
   </si>
   <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>EON</t>
+  </si>
+  <si>
+    <t>Auto_Company_55</t>
+  </si>
+  <si>
+    <t>Tollarance</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>MiniGoogle</t>
+  </si>
+  <si>
+    <t>RenewableDiscount</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Value (£pMWh)</t>
+  </si>
+  <si>
+    <t>Supplier Clips</t>
   </si>
 </sst>
 </file>
@@ -5301,7 +5325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5355,6 +5379,7 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13593,7 +13618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -13921,7 +13946,7 @@
         <v>1638</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="30">
@@ -13993,22 +14018,22 @@
     </row>
     <row r="25" spans="2:14" ht="30">
       <c r="B25" s="9" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>1714</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>1715</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>1642</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>1645</v>
@@ -14017,7 +14042,7 @@
         <v>1647</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
@@ -14040,86 +14065,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="18" t="s">
         <v>1673</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>1717</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="18" t="s">
         <v>1674</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1675</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="18" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="B9" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C9" t="s">
         <v>1677</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1678</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1679</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>1680</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1681</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>1682</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>1683</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>1684</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1685</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>1686</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>1687</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1689</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>1690</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>1690</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>1691</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>37</v>
@@ -14128,104 +14159,104 @@
         <v>1656</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>1656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1694</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>1695</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B12" t="s">
         <v>1696</v>
       </c>
-      <c r="B12" t="s">
-        <v>1697</v>
-      </c>
       <c r="C12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="I12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="K12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="L12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="M12" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14241,64 +14272,64 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" s="18" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1698</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>1699</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>1700</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>1701</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>1703</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="5" t="s">
         <v>1704</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="20" t="s">
         <v>1706</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="7" t="s">
         <v>1707</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="21" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>1709</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1710</v>
-      </c>
       <c r="E16" s="20" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>1707</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="18" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -14360,8 +14391,49 @@
         <v>10</v>
       </c>
     </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>1689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="6435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:M11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="1731">
   <si>
     <t>test ID</t>
   </si>
@@ -5026,9 +5026,6 @@
     <t>Upload Price</t>
   </si>
   <si>
-    <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\PriceUpload.xlsx</t>
-  </si>
-  <si>
     <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\Testing.docx</t>
   </si>
   <si>
@@ -5173,9 +5170,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>EON</t>
-  </si>
-  <si>
     <t>Auto_Company_55</t>
   </si>
   <si>
@@ -5198,6 +5192,27 @@
   </si>
   <si>
     <t>Supplier Clips</t>
+  </si>
+  <si>
+    <t>Tender Date</t>
+  </si>
+  <si>
+    <t>25/12/2019</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\PriceUpload (4).xlsx</t>
+  </si>
+  <si>
+    <t>Meter Number</t>
+  </si>
+  <si>
+    <t>Auto_Company_333</t>
   </si>
 </sst>
 </file>
@@ -5689,9 +5704,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -5753,13 +5768,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1569"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A932" sqref="A932"/>
+    <sheetView topLeftCell="A1520" workbookViewId="0">
+      <selection activeCell="A1524" sqref="A1524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13619,21 +13634,21 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="26.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
-    <col min="5" max="5" width="14.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="8" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="9" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
@@ -13946,7 +13961,7 @@
         <v>1638</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="30">
@@ -13986,16 +14001,16 @@
     </row>
     <row r="23" spans="2:14" ht="30">
       <c r="B23" s="9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>1670</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="9" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1671</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1672</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>1642</v>
@@ -14018,22 +14033,22 @@
     </row>
     <row r="25" spans="2:14" ht="30">
       <c r="B25" s="9" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>1713</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>1714</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>1642</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>1645</v>
@@ -14042,7 +14057,7 @@
         <v>1647</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -14053,13 +14068,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="18" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14067,90 +14120,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="18" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1717</v>
+        <v>1672</v>
+      </c>
+      <c r="B1" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="18" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="18" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="B9" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C9" t="s">
         <v>1676</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1677</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1678</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>1679</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1680</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>1681</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>1682</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>1683</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1684</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>1685</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>1686</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1688</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>1689</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>1689</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>1690</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>37</v>
@@ -14159,104 +14212,104 @@
         <v>1656</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>1656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1693</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>1694</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B12" t="s">
         <v>1695</v>
       </c>
-      <c r="B12" t="s">
-        <v>1696</v>
-      </c>
       <c r="C12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="I12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="K12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="M12" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14272,64 +14325,64 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" s="18" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1697</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>1698</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>1699</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>1700</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>1702</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="5" t="s">
         <v>1703</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>1704</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="20" t="s">
         <v>1705</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="7" t="s">
         <v>1706</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="21" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>1708</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1709</v>
-      </c>
       <c r="E16" s="20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>1706</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="18" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -14393,42 +14446,42 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B24" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
   </sheetData>
@@ -14442,18 +14495,18 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="14"/>
-    <col min="3" max="3" width="13.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="2" width="9.140625" style="14" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="14" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45">
@@ -14508,7 +14561,7 @@
         <v>1666</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1668</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30">
@@ -14519,7 +14572,7 @@
         <v>1650</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="4" spans="1:12">

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="6435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="6435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M11"/>
+  <oleSize ref="A26:H42"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1734">
   <si>
     <t>test ID</t>
   </si>
@@ -5170,9 +5170,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>Auto_Company_55</t>
-  </si>
-  <si>
     <t>Tollarance</t>
   </si>
   <si>
@@ -5213,6 +5210,19 @@
   </si>
   <si>
     <t>Auto_Company_333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GasMonthsDetals(EnterValid DataInTo GasMeterForeCast) 
+</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Therms Per Day for Purchasing</t>
   </si>
 </sst>
 </file>
@@ -13633,8 +13643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14070,8 +14080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14087,24 +14097,24 @@
         <v>1610</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1566</v>
@@ -14118,15 +14128,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -14143,7 +14153,7 @@
         <v>1673</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1716</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -14446,7 +14456,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>1688</v>
@@ -14454,23 +14464,23 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B24" t="s">
         <v>1718</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>1720</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>1688</v>
@@ -14478,10 +14488,34 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>1688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="60">
+      <c r="A29" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>1644</v>
       </c>
     </row>
   </sheetData>
@@ -14561,7 +14595,7 @@
         <v>1666</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30">

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="6435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A26:H42"/>
+  <oleSize ref="A1:J6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1752">
   <si>
     <t>test ID</t>
   </si>
@@ -5207,9 +5208,6 @@
   </si>
   <si>
     <t>Meter Number</t>
-  </si>
-  <si>
-    <t>Auto_Company_333</t>
   </si>
   <si>
     <t xml:space="preserve">GasMonthsDetals(EnterValid DataInTo GasMeterForeCast) 
@@ -5223,6 +5221,63 @@
   </si>
   <si>
     <t>Therms Per Day for Purchasing</t>
+  </si>
+  <si>
+    <t>Auto_Company_55</t>
+  </si>
+  <si>
+    <t>Auto_Company_111</t>
+  </si>
+  <si>
+    <t>Fixed Procurement</t>
+  </si>
+  <si>
+    <t>Tender Duration</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>14/03/2018</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>28/06/2018</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>20/03/2018</t>
+  </si>
+  <si>
+    <t>validateMandatoryFieldsContractHistoryPopupDataProvider2</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_042</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_043</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_044</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_045</t>
   </si>
 </sst>
 </file>
@@ -5350,7 +5405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5405,6 +5460,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5709,7 +5767,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13641,10 +13699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14070,6 +14128,55 @@
         <v>1715</v>
       </c>
     </row>
+    <row r="28" spans="2:14" ht="45">
+      <c r="B28" s="9" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="9" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>1743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14081,7 +14188,7 @@
   <dimension ref="B1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14108,7 +14215,7 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="C2" t="s">
         <v>1724</v>
@@ -14130,8 +14237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14153,7 +14260,7 @@
         <v>1673</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -14494,9 +14601,9 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="60">
+    <row r="29" spans="1:20" ht="30">
       <c r="A29" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>1688</v>
@@ -14504,15 +14611,15 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>1731</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>1644</v>
@@ -14628,4 +14735,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45">
+      <c r="A1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="23" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="23" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="3075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J6"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1753">
   <si>
     <t>test ID</t>
   </si>
@@ -5223,9 +5223,6 @@
     <t>Therms Per Day for Purchasing</t>
   </si>
   <si>
-    <t>Auto_Company_55</t>
-  </si>
-  <si>
     <t>Auto_Company_111</t>
   </si>
   <si>
@@ -5278,6 +5275,12 @@
   </si>
   <si>
     <t>PM_PP_TC_045</t>
+  </si>
+  <si>
+    <t>EON</t>
+  </si>
+  <si>
+    <t>VACU Steel3</t>
   </si>
 </sst>
 </file>
@@ -5837,7 +5840,7 @@
   <dimension ref="A1:B1569"/>
   <sheetViews>
     <sheetView topLeftCell="A1520" workbookViewId="0">
-      <selection activeCell="A1524" sqref="A1524"/>
+      <selection activeCell="A1480" sqref="A1480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13701,7 +13704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -14130,51 +14133,51 @@
     </row>
     <row r="28" spans="2:14" ht="45">
       <c r="B28" s="9" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="9" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="9" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>1740</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="9" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="9" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
   </sheetData>
@@ -14215,7 +14218,7 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C2" t="s">
         <v>1724</v>
@@ -14237,8 +14240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14251,8 +14254,8 @@
       <c r="A1" s="18" t="s">
         <v>1672</v>
       </c>
-      <c r="B1" s="5">
-        <v>4</v>
+      <c r="B1" s="5" t="s">
+        <v>1751</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -14260,7 +14263,7 @@
         <v>1673</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1733</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -14753,13 +14756,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="45">
       <c r="A1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>12</v>
@@ -14796,12 +14799,12 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="23" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="23" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
   </sheetData>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1756">
   <si>
     <t>test ID</t>
   </si>
@@ -5281,12 +5281,22 @@
   </si>
   <si>
     <t>VACU Steel3</t>
+  </si>
+  <si>
+    <t>Smartest Energy</t>
+  </si>
+  <si>
+    <t>F&amp;S Energy</t>
+  </si>
+  <si>
+    <t>Total Gas and Power</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -5775,9 +5785,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -5845,7 +5855,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13710,16 +13720,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="9" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="9" collapsed="1"/>
+    <col min="1" max="1" style="8" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" style="9" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="9" width="10.5703125" collapsed="true"/>
+    <col min="10" max="16384" style="9" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
@@ -14196,10 +14206,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -14246,8 +14256,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="64.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -14256,6 +14266,11 @@
       </c>
       <c r="B1" s="5" t="s">
         <v>1751</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -14644,13 +14659,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="14" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="14" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="14" collapsed="1"/>
+    <col min="1" max="2" style="14" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="14" width="25.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="14" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="14" width="33.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45">
@@ -14750,8 +14765,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45">

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="3075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="6435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:P20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1756">
   <si>
     <t>test ID</t>
   </si>
@@ -5283,13 +5283,13 @@
     <t>VACU Steel3</t>
   </si>
   <si>
+    <t>Total Gas and Power</t>
+  </si>
+  <si>
     <t>Smartest Energy</t>
   </si>
   <si>
     <t>F&amp;S Energy</t>
-  </si>
-  <si>
-    <t>Total Gas and Power</t>
   </si>
 </sst>
 </file>
@@ -14200,7 +14200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -14250,7 +14250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -14270,7 +14270,7 @@
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="4" spans="1:23">

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="6435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13890" windowHeight="6435" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,17 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P20"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1764">
   <si>
     <t>test ID</t>
   </si>
@@ -5286,17 +5289,40 @@
     <t>Total Gas and Power</t>
   </si>
   <si>
-    <t>Smartest Energy</t>
-  </si>
-  <si>
-    <t>F&amp;S Energy</t>
+    <t>Tender Response</t>
+  </si>
+  <si>
+    <t>Offer Status</t>
+  </si>
+  <si>
+    <t>Initial Offer</t>
+  </si>
+  <si>
+    <t>Auto_Testing</t>
+  </si>
+  <si>
+    <t>Expiry Time</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>30/11/2019  4:00:00 PM</t>
+  </si>
+  <si>
+    <t>Meter Info</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -5418,7 +5444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5476,6 +5502,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5785,9 +5812,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -5842,6 +5869,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5855,7 +5894,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="29.28515625" collapsed="true"/>
+    <col min="1" max="1" width="29.28515625" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13720,16 +13759,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" style="9" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="9" width="14.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="9" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="9" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="9" width="10.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="9" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="8" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="9" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
@@ -14198,18 +14237,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -14256,8 +14295,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="64.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -14268,7 +14307,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23">
       <c r="D2" t="s">
         <v>1753</v>
       </c>
@@ -14659,13 +14698,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" style="14" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="14" width="25.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="14" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="14" width="33.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="9.140625" style="14" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="14" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45">
@@ -14757,19 +14796,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" t="s">
         <v>1734</v>
       </c>
@@ -14820,10 +14864,109 @@
     <row r="4" spans="1:12">
       <c r="C4" s="23" t="s">
         <v>1737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" s="23" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="23" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13890" windowHeight="6435" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:J11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1787">
   <si>
     <t>test ID</t>
   </si>
@@ -5317,6 +5317,75 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_016</t>
+  </si>
+  <si>
+    <t>meter Number Second Field</t>
+  </si>
+  <si>
+    <t>meter Number Third Field</t>
+  </si>
+  <si>
+    <t>meter Number Fourth Field</t>
+  </si>
+  <si>
+    <t>meter Number Fifth Field</t>
+  </si>
+  <si>
+    <t>meter Number Sixth Field</t>
+  </si>
+  <si>
+    <t>meter Number Seventh Field</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_017</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_018</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_019</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>4022</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_020</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_022</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>PM_PP_TC_024</t>
   </si>
 </sst>
 </file>
@@ -5444,7 +5513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5503,6 +5572,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5876,7 +5948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -13751,10 +13823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13767,7 +13839,7 @@
     <col min="6" max="6" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.140625" style="9" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="9.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="9" customWidth="1" collapsed="1"/>
     <col min="10" max="16384" width="9.140625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -14227,6 +14299,169 @@
       </c>
       <c r="K32" s="9" t="s">
         <v>1742</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="60">
+      <c r="C34" s="26" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="9" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="9" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="9" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="9" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="9" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="9" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="9" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>1784</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>1785</v>
       </c>
     </row>
   </sheetData>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13890" windowHeight="6435" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J11"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1789">
   <si>
     <t>test ID</t>
   </si>
@@ -5283,9 +5283,6 @@
     <t>EON</t>
   </si>
   <si>
-    <t>VACU Steel3</t>
-  </si>
-  <si>
     <t>Total Gas and Power</t>
   </si>
   <si>
@@ -5386,12 +5383,22 @@
   </si>
   <si>
     <t>PM_PP_TC_024</t>
+  </si>
+  <si>
+    <t>Auto_Simpro</t>
+  </si>
+  <si>
+    <t>Smartest Energy</t>
+  </si>
+  <si>
+    <t>F&amp;S Energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -5884,9 +5891,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -5966,7 +5973,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13825,22 +13832,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="9" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="9" collapsed="1"/>
+    <col min="1" max="1" style="8" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" style="9" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="9" width="13.5703125" collapsed="true"/>
+    <col min="10" max="16384" style="9" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
@@ -14303,22 +14310,22 @@
     </row>
     <row r="34" spans="2:10" ht="60">
       <c r="C34" s="26" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>1765</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="E34" s="26" t="s">
         <v>1766</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="F34" s="26" t="s">
         <v>1767</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="G34" s="26" t="s">
         <v>1768</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="H34" s="26" t="s">
         <v>1769</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>1770</v>
       </c>
       <c r="I34" s="26" t="s">
         <v>1603</v>
@@ -14329,139 +14336,139 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="9" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>1771</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="9" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>1688</v>
       </c>
       <c r="F37" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>1777</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="9" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>1688</v>
       </c>
       <c r="F38" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>1777</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="9" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>1688</v>
       </c>
       <c r="F39" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>1777</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>1778</v>
-      </c>
       <c r="I39" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="9" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>1688</v>
       </c>
       <c r="F40" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>1777</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>1778</v>
-      </c>
       <c r="J40" s="10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="9" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>1688</v>
       </c>
       <c r="F41" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>1777</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>1778</v>
-      </c>
       <c r="I41" s="10" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J41" s="10" t="s">
         <v>1784</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -14472,7 +14479,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -14480,10 +14487,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -14525,13 +14532,13 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="64.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -14542,9 +14549,9 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2">
       <c r="D2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -14552,7 +14559,7 @@
         <v>1673</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1752</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -14933,13 +14940,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="14" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="14" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="14" collapsed="1"/>
+    <col min="1" max="2" style="14" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="14" width="25.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="14" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="14" width="33.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45">
@@ -15039,13 +15046,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -15103,22 +15110,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>1654</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>1665</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>1758</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>1759</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>1658</v>
@@ -15130,13 +15137,13 @@
         <v>1688</v>
       </c>
       <c r="D8" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E8" t="s">
         <v>1756</v>
       </c>
-      <c r="E8" t="s">
-        <v>1757</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G8" t="s">
         <v>1650</v>
@@ -15147,7 +15154,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>1633</v>
@@ -15164,13 +15171,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" s="23" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1688</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>23</v>
@@ -15186,7 +15193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13890" windowHeight="6435" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13890" windowHeight="4620" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:N14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1798">
   <si>
     <t>test ID</t>
   </si>
@@ -5388,17 +5388,43 @@
     <t>Auto_Simpro</t>
   </si>
   <si>
-    <t>Smartest Energy</t>
-  </si>
-  <si>
-    <t>F&amp;S Energy</t>
+    <t>Request Quote Link</t>
+  </si>
+  <si>
+    <t>/Quote/RequestQuote</t>
+  </si>
+  <si>
+    <t>Manage Tenders</t>
+  </si>
+  <si>
+    <t>/ManageTenders</t>
+  </si>
+  <si>
+    <t>AddBudget%</t>
+  </si>
+  <si>
+    <t>AddRaising%</t>
+  </si>
+  <si>
+    <t>Falling%</t>
+  </si>
+  <si>
+    <t>ContractYearForAnalysis</t>
+  </si>
+  <si>
+    <t>Projected Cost</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -5891,9 +5917,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -5973,7 +5999,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="29.28515625" collapsed="true"/>
+    <col min="1" max="1" width="29.28515625" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13838,16 +13864,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" style="9" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="9" width="14.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="9" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="9" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="9" width="13.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="9" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="8" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="9" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
@@ -14479,21 +14505,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:8">
       <c r="B1" s="18" t="s">
         <v>1610</v>
       </c>
@@ -14506,8 +14534,14 @@
       <c r="E1" s="18" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
+      <c r="G1" s="18" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>1733</v>
       </c>
@@ -14519,6 +14553,12 @@
       </c>
       <c r="E2" s="7" t="s">
         <v>1566</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1790</v>
       </c>
     </row>
   </sheetData>
@@ -14537,8 +14577,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="64.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -14549,7 +14589,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23">
       <c r="D2" t="s">
         <v>1752</v>
       </c>
@@ -14940,13 +14980,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" style="14" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="14" width="25.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="14" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="14" width="33.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="9.140625" style="14" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="14" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45">
@@ -15046,13 +15086,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -15191,26 +15231,72 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A4:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="23" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="23" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13890" windowHeight="4620" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13890" windowHeight="6435" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N14"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
@@ -5385,9 +5385,6 @@
     <t>PM_PP_TC_024</t>
   </si>
   <si>
-    <t>Auto_Simpro</t>
-  </si>
-  <si>
     <t>Request Quote Link</t>
   </si>
   <si>
@@ -5419,6 +5416,9 @@
   </si>
   <si>
     <t>2012</t>
+  </si>
+  <si>
+    <t>VACU Steel3</t>
   </si>
 </sst>
 </file>
@@ -14507,7 +14507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -14535,10 +14535,10 @@
         <v>1728</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -14555,10 +14555,10 @@
         <v>1566</v>
       </c>
       <c r="G2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
   </sheetData>
@@ -14572,7 +14572,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14599,7 +14599,7 @@
         <v>1673</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1786</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -15241,7 +15241,7 @@
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>1688</v>
@@ -15249,7 +15249,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>1688</v>
@@ -15257,7 +15257,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>1688</v>
@@ -15272,7 +15272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -15280,20 +15280,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C1" t="s">
         <v>1794</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="23" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="23" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
   </sheetData>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13890" windowHeight="6435" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14880" windowHeight="4215" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="E1:N8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1803">
   <si>
     <t>test ID</t>
   </si>
@@ -5028,9 +5028,6 @@
   </si>
   <si>
     <t>Upload Price</t>
-  </si>
-  <si>
-    <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\Testing.docx</t>
   </si>
   <si>
     <t>addValidNHHcontractHistory()</t>
@@ -5419,6 +5416,24 @@
   </si>
   <si>
     <t>VACU Steel3</t>
+  </si>
+  <si>
+    <t>14/11/2019</t>
+  </si>
+  <si>
+    <t>VACU Steel3, OEM01869, 24 (HH), EON (MiniGoogle) - (14/11/2019 08:33)</t>
+  </si>
+  <si>
+    <t>4444444444</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>NHH</t>
+  </si>
+  <si>
+    <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\PriceUpload_Gas.xlsx</t>
   </si>
 </sst>
 </file>
@@ -13858,8 +13873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14186,7 +14201,7 @@
         <v>1638</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="30">
@@ -14226,16 +14241,16 @@
     </row>
     <row r="23" spans="2:14" ht="30">
       <c r="B23" s="9" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>1669</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1670</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1670</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1671</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>1642</v>
@@ -14258,22 +14273,22 @@
     </row>
     <row r="25" spans="2:14" ht="30">
       <c r="B25" s="9" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>1712</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>1713</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>1642</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>1645</v>
@@ -14282,76 +14297,76 @@
         <v>1647</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="45">
       <c r="B28" s="9" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="9" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="9" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>1739</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="9" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="9" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="60">
       <c r="C34" s="26" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>1764</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="E34" s="26" t="s">
         <v>1765</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="F34" s="26" t="s">
         <v>1766</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="G34" s="26" t="s">
         <v>1767</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="H34" s="26" t="s">
         <v>1768</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>1769</v>
       </c>
       <c r="I34" s="26" t="s">
         <v>1603</v>
@@ -14362,139 +14377,139 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="9" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="9" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>1770</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="9" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F37" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>1775</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>1776</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="9" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>1774</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>1775</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>1776</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="9" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>1779</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>1775</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>1776</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>1777</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="9" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F40" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>1775</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>1777</v>
-      </c>
       <c r="J40" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="9" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F41" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>1775</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>1777</v>
-      </c>
       <c r="I41" s="10" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J41" s="10" t="s">
         <v>1783</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>1784</v>
       </c>
     </row>
   </sheetData>
@@ -14505,10 +14520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14517,8 +14532,8 @@
     <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -14526,39 +14541,52 @@
         <v>1610</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1566</v>
       </c>
       <c r="G2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H2" t="s">
-        <v>1789</v>
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="D3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="D4" t="s">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -14583,83 +14611,83 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="18" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="D2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="18" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="18" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="B9" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C9" t="s">
         <v>1675</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1676</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1677</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>1678</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1679</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>1680</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>1681</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>1682</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1683</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>1684</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>1685</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1687</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>1688</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>1688</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>1689</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>37</v>
@@ -14668,104 +14696,104 @@
         <v>1656</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>1656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1692</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>1693</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B12" t="s">
         <v>1694</v>
       </c>
-      <c r="B12" t="s">
-        <v>1695</v>
-      </c>
       <c r="C12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="L12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="M12" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14781,64 +14809,64 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" s="18" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1696</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>1697</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>1698</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>1699</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>1701</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="5" t="s">
         <v>1702</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>1703</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="20" t="s">
         <v>1704</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="7" t="s">
         <v>1705</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="21" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1708</v>
-      </c>
       <c r="E16" s="20" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>1705</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="18" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -14902,63 +14930,63 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B24" t="s">
         <v>1717</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>1719</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="30">
       <c r="A29" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>1730</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>1644</v>
@@ -14974,8 +15002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15041,7 +15069,7 @@
         <v>1666</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30">
@@ -15052,7 +15080,7 @@
         <v>1650</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>1668</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -15097,13 +15125,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30">
       <c r="A1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>12</v>
@@ -15140,32 +15168,32 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="23" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="23" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>1654</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>1665</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>1757</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>1758</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>1658</v>
@@ -15174,16 +15202,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="C8" s="23" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D8" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E8" t="s">
         <v>1755</v>
       </c>
-      <c r="E8" t="s">
-        <v>1756</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G8" t="s">
         <v>1650</v>
@@ -15194,7 +15222,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>1633</v>
@@ -15211,13 +15239,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" s="23" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>1761</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>1762</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>23</v>
@@ -15231,7 +15259,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -15239,28 +15267,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="1" spans="1:3">
+      <c r="C1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>1790</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" s="23" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>1791</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>1792</v>
-      </c>
       <c r="B6" s="23" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
@@ -15280,20 +15318,20 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1" t="s">
         <v>1793</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="23" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="23" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
   </sheetData>

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1807">
   <si>
     <t>test ID</t>
   </si>
@@ -5434,12 +5434,25 @@
   </si>
   <si>
     <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\PriceUpload_Gas.xlsx</t>
+  </si>
+  <si>
+    <t>Smartest Energy</t>
+  </si>
+  <si>
+    <t>F&amp;S Energy</t>
+  </si>
+  <si>
+    <t>16/11/2019</t>
+  </si>
+  <si>
+    <t>VACU Steel3, OEM01875, 24 (HH), EON (MiniGoogle) - (16/11/2019 07:50)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -5932,9 +5945,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -6014,7 +6027,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13879,16 +13892,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="9" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="9" collapsed="1"/>
+    <col min="1" max="1" style="8" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" style="9" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="9" width="13.5703125" collapsed="true"/>
+    <col min="10" max="16384" style="9" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
@@ -14520,7 +14533,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="B1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -14528,12 +14541,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -14605,8 +14618,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="64.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -14617,7 +14630,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2">
       <c r="D2" t="s">
         <v>1751</v>
       </c>
@@ -15008,13 +15021,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="14" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="14" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="14" collapsed="1"/>
+    <col min="1" max="2" style="14" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="14" width="25.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="14" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="14" width="33.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45">
@@ -15114,13 +15127,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30">
@@ -15267,14 +15280,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="C1" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14880" windowHeight="4215" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="E1:N8"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1806">
   <si>
     <t>test ID</t>
   </si>
@@ -5418,12 +5418,6 @@
     <t>VACU Steel3</t>
   </si>
   <si>
-    <t>14/11/2019</t>
-  </si>
-  <si>
-    <t>VACU Steel3, OEM01869, 24 (HH), EON (MiniGoogle) - (14/11/2019 08:33)</t>
-  </si>
-  <si>
     <t>4444444444</t>
   </si>
   <si>
@@ -5436,16 +5430,19 @@
     <t>C:\\Users\\prasanna\\Desktop\\OEM_Excel\\PriceUpload_Gas.xlsx</t>
   </si>
   <si>
+    <t>16/11/2019</t>
+  </si>
+  <si>
+    <t>-- Quote --</t>
+  </si>
+  <si>
     <t>Smartest Energy</t>
   </si>
   <si>
     <t>F&amp;S Energy</t>
   </si>
   <si>
-    <t>16/11/2019</t>
-  </si>
-  <si>
-    <t>VACU Steel3, OEM01875, 24 (HH), EON (MiniGoogle) - (16/11/2019 07:50)</t>
+    <t>VACU Steel3, OEM01893, 24 (HH), EON (MiniGoogle) - (19/11/2019 05:39)</t>
   </si>
 </sst>
 </file>
@@ -5453,7 +5450,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5501,6 +5498,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -5574,7 +5577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5636,6 +5639,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14535,8 +14539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14589,17 +14593,23 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" ht="17.25">
       <c r="D3" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>1799</v>
+        <v>1567</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1014571797204</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="D4" t="s">
-        <v>1800</v>
+        <v>1798</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>1797</v>
       </c>
     </row>
   </sheetData>
@@ -15015,7 +15025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -15093,7 +15103,7 @@
         <v>1650</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -15282,12 +15292,12 @@
   <sheetData>
     <row r="1">
       <c r="C1" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/data/testscriptdata.xlsx
+++ b/data/testscriptdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1808">
   <si>
     <t>test ID</t>
   </si>
@@ -5443,6 +5443,12 @@
   </si>
   <si>
     <t>VACU Steel3, OEM01893, 24 (HH), EON (MiniGoogle) - (19/11/2019 05:39)</t>
+  </si>
+  <si>
+    <t>VACU Steel3, OEM01894, 24 (HH), EON (MiniGoogle) - (19/11/2019 06:03)</t>
+  </si>
+  <si>
+    <t>19/11/2019</t>
   </si>
 </sst>
 </file>
@@ -15292,12 +15298,12 @@
   <sheetData>
     <row r="1">
       <c r="C1" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>1801</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="4" spans="1:3">
